--- a/ListagemDeClientesDaLojaVirtual.xlsx
+++ b/ListagemDeClientesDaLojaVirtual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BUILDER-SEU-NEGOCIO-ONLINE\PROJETOS-PROGRAMACAO\E-commerce\BackEnd-API-Ecommerce\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabriel.bastiani\Desktop\PESSOAL\BackEnd-API-Ecommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428A043A-B4F0-42C9-8B26-E9BBE939867A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6331F85-264C-4F1F-BCA0-32655D522E92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lista-de-usuarios" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+  <si>
+    <t>ID do Usuario</t>
+  </si>
   <si>
     <t>Nome Completo</t>
   </si>
@@ -43,10 +46,16 @@
     <t>Genero</t>
   </si>
   <si>
-    <t>Nome do recebedor do pedido</t>
-  </si>
-  <si>
-    <t>Endereço</t>
+    <t>Rua</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Complemento</t>
   </si>
   <si>
     <t>CEP</t>
@@ -58,10 +67,10 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Pais</t>
-  </si>
-  <si>
-    <t>Data de cadastro do cliente</t>
+    <t>ID Loja</t>
+  </si>
+  <si>
+    <t>a3024c62-4c35-4204-9e21-83ce3d58ccf0</t>
   </si>
   <si>
     <t>Gabriel Campos de Bastiani</t>
@@ -70,37 +79,19 @@
     <t>gabriel.bastiani@sumig.com</t>
   </si>
   <si>
-    <t>007.002.440-50</t>
-  </si>
-  <si>
-    <t>ISENTO</t>
-  </si>
-  <si>
-    <t>(54) 991663743</t>
-  </si>
-  <si>
-    <t>10/03/1986</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Rua José Soares de Oliveira 2417</t>
-  </si>
-  <si>
-    <t>95034-100</t>
-  </si>
-  <si>
-    <t>Caxias do Sul</t>
-  </si>
-  <si>
-    <t>Rio Grande do Sul</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>gfdgfdgdfgd</t>
+  </si>
+  <si>
+    <t>2417</t>
+  </si>
+  <si>
+    <t>Pio X</t>
+  </si>
+  <si>
+    <t>Frente a mecanica Pio X</t>
   </si>
 </sst>
 </file>
@@ -136,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,31 +442,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.8984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,49 +511,61 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
